--- a/2 - Language (Words)/[7-11] Word Scaling Analysis (log)/Parameter Tables/Output-Parameters_for_English_Scaling.xlsx
+++ b/2 - Language (Words)/[7-11] Word Scaling Analysis (log)/Parameter Tables/Output-Parameters_for_English_Scaling.xlsx
@@ -100,7 +100,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.42578125" customWidth="true"/>
@@ -165,177 +165,221 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-43.567239215779622</v>
+        <v>26.283883051840483</v>
       </c>
       <c r="B2" s="0">
-        <v>14.43560763305447</v>
+        <v>6.5348732313863973</v>
       </c>
       <c r="C2" s="0">
-        <v>-55.742727491887401</v>
+        <v>-13.335427761014689</v>
       </c>
       <c r="D2" s="0">
-        <v>15.839469204917229</v>
+        <v>6.3042874815179717</v>
       </c>
       <c r="E2" s="0">
-        <v>622.56640850788415</v>
+        <v>422.41262905677331</v>
       </c>
       <c r="F2" s="0">
-        <v>35.203615789062695</v>
+        <v>14.321795995515986</v>
       </c>
       <c r="G2" s="0">
-        <v>482.71885831325682</v>
+        <v>485.86281340968475</v>
       </c>
       <c r="H2" s="0">
-        <v>14.391347717574085</v>
+        <v>9.7108041578378526</v>
       </c>
       <c r="I2" s="0">
-        <v>0.0020651019727204885</v>
+        <v>0.081173167756249914</v>
       </c>
       <c r="J2" s="0">
-        <v>0.0020651019727204885</v>
+        <v>0.081173167756249914</v>
       </c>
       <c r="K2" s="0">
-        <v>23.375762491688967</v>
+        <v>7.7953867742422807</v>
       </c>
       <c r="L2" s="0">
-        <v>3.3393946416698523</v>
+        <v>1.1136266820346115</v>
       </c>
       <c r="M2" s="0">
-        <v>-0.99439422321148818</v>
+        <v>0.77659986860035501</v>
       </c>
       <c r="N2" s="0">
-        <v>-0.38639388756324922</v>
+        <v>-0.57114564612830032</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>149.99999920513602</v>
+        <v>-43.567395271568138</v>
       </c>
       <c r="B3" s="0">
-        <v>13.872931268763658</v>
+        <v>14.435612919278318</v>
       </c>
       <c r="C3" s="0">
-        <v>-26.255400053046319</v>
+        <v>-55.742727083163743</v>
       </c>
       <c r="D3" s="0">
-        <v>6.9854349465744781</v>
+        <v>15.839468778802949</v>
       </c>
       <c r="E3" s="0">
-        <v>212.82725120077964</v>
+        <v>622.56677896510814</v>
       </c>
       <c r="F3" s="0">
-        <v>27.87052562293303</v>
+        <v>35.203623042954028</v>
       </c>
       <c r="G3" s="0">
-        <v>584.0054538887963</v>
+        <v>482.71885835311127</v>
       </c>
       <c r="H3" s="0">
-        <v>8.3636552904631394</v>
+        <v>14.391347530491375</v>
       </c>
       <c r="I3" s="0">
-        <v>1.6243524213835716</v>
+        <v>0.0020651019710883796</v>
       </c>
       <c r="J3" s="0">
-        <v>1.6243524213835716</v>
+        <v>0.0020651019710883796</v>
       </c>
       <c r="K3" s="0">
-        <v>23.847056290913645</v>
+        <v>23.375762491688974</v>
       </c>
       <c r="L3" s="0">
-        <v>3.406722327273378</v>
+        <v>3.3393946416698532</v>
       </c>
       <c r="M3" s="0">
-        <v>0.98147128551698137</v>
+        <v>-0.99439422321148818</v>
       </c>
       <c r="N3" s="0">
-        <v>-0.42316259173399562</v>
+        <v>-0.38639388756324922</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>149.99999457695876</v>
+        <v>149.9999968377895</v>
       </c>
       <c r="B4" s="0">
-        <v>22.736514744459303</v>
+        <v>13.872931072598096</v>
       </c>
       <c r="C4" s="0">
-        <v>-17.420494877517825</v>
+        <v>-26.255399949104149</v>
       </c>
       <c r="D4" s="0">
-        <v>13.100203681183279</v>
+        <v>6.985434185002128</v>
       </c>
       <c r="E4" s="0">
-        <v>242.49876299966209</v>
+        <v>212.82725717686984</v>
       </c>
       <c r="F4" s="0">
-        <v>47.088359456875189</v>
+        <v>27.870525121311985</v>
       </c>
       <c r="G4" s="0">
-        <v>535.61315853042095</v>
+        <v>584.00545020831839</v>
       </c>
       <c r="H4" s="0">
-        <v>16.180735623057874</v>
+        <v>8.3636589975661551</v>
       </c>
       <c r="I4" s="0">
-        <v>0.23297818223621872</v>
+        <v>1.6243524809476624</v>
       </c>
       <c r="J4" s="0">
-        <v>0.23297818223621872</v>
+        <v>1.6243524809476624</v>
       </c>
       <c r="K4" s="0">
-        <v>28.931134769708045</v>
+        <v>23.847056290913891</v>
       </c>
       <c r="L4" s="0">
-        <v>4.1330192528154353</v>
+        <v>3.4067223272734131</v>
       </c>
       <c r="M4" s="0">
-        <v>0.9526316899908831</v>
+        <v>0.98147128551698137</v>
       </c>
       <c r="N4" s="0">
-        <v>-0.28679405289330295</v>
+        <v>-0.42316259173399562</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>103.58276057830905</v>
+        <v>149.99999311925231</v>
       </c>
       <c r="B5" s="0">
-        <v>7.5349025539576386</v>
+        <v>22.736545349909239</v>
       </c>
       <c r="C5" s="0">
-        <v>-2.9678189093434382</v>
+        <v>-17.420495880944472</v>
       </c>
       <c r="D5" s="0">
-        <v>7.1617433494932916</v>
+        <v>13.100204598170073</v>
       </c>
       <c r="E5" s="0">
-        <v>317.71933154553739</v>
+        <v>242.49870232052629</v>
       </c>
       <c r="F5" s="0">
-        <v>17.965764067213243</v>
+        <v>47.088423233717656</v>
       </c>
       <c r="G5" s="0">
-        <v>538.11330971804534</v>
+        <v>535.61315806911796</v>
       </c>
       <c r="H5" s="0">
-        <v>8.5243247621864047</v>
+        <v>16.180735797511957</v>
       </c>
       <c r="I5" s="0">
-        <v>0.28317611546981225</v>
+        <v>0.23297818647390209</v>
       </c>
       <c r="J5" s="0">
-        <v>0.28317611546981225</v>
+        <v>0.23297818647390209</v>
       </c>
       <c r="K5" s="0">
-        <v>8.8419066705372131</v>
+        <v>28.931134769708052</v>
       </c>
       <c r="L5" s="0">
-        <v>1.263129524362459</v>
+        <v>4.1330192528154361</v>
       </c>
       <c r="M5" s="0">
+        <v>0.9526316899908831</v>
+      </c>
+      <c r="N5" s="0">
+        <v>-0.28679405289330295</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>103.58276186940586</v>
+      </c>
+      <c r="B6" s="0">
+        <v>7.5349025607918154</v>
+      </c>
+      <c r="C6" s="0">
+        <v>-2.9678200114033308</v>
+      </c>
+      <c r="D6" s="0">
+        <v>7.1617443240328553</v>
+      </c>
+      <c r="E6" s="0">
+        <v>317.71932842316551</v>
+      </c>
+      <c r="F6" s="0">
+        <v>17.965764138446922</v>
+      </c>
+      <c r="G6" s="0">
+        <v>538.11331026099253</v>
+      </c>
+      <c r="H6" s="0">
+        <v>8.524324585938162</v>
+      </c>
+      <c r="I6" s="0">
+        <v>0.28317611546981469</v>
+      </c>
+      <c r="J6" s="0">
+        <v>0.28317611546981469</v>
+      </c>
+      <c r="K6" s="0">
+        <v>8.8419066705372078</v>
+      </c>
+      <c r="L6" s="0">
+        <v>1.2631295243624583</v>
+      </c>
+      <c r="M6" s="0">
         <v>0.9663035114294074</v>
       </c>
-      <c r="N5" s="0">
+      <c r="N6" s="0">
         <v>-0.30584135700351567</v>
       </c>
     </row>
